--- a/data/Winter_Lake_Temperatures/LakeOntario_ChaumontBay.xlsx
+++ b/data/Winter_Lake_Temperatures/LakeOntario_ChaumontBay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/Winter_Lake_Temperatures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B37B5533-6707-6842-A424-2AEAE4E164BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7679B3E-A255-0D4E-8AD0-A1DDCE94FD9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LakeOntario_ChaumontBay" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -872,20 +872,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6535"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -92371,6 +92368,3016 @@
         <v>-76.17</v>
       </c>
       <c r="D6535">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6536" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B6536">
+        <v>6.8090000000000002</v>
+      </c>
+      <c r="C6536">
+        <v>-76.17</v>
+      </c>
+      <c r="D6536">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6537" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B6537">
+        <v>6.9740000000000002</v>
+      </c>
+      <c r="C6537">
+        <v>-76.17</v>
+      </c>
+      <c r="D6537">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6538" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B6538">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="C6538">
+        <v>-76.17</v>
+      </c>
+      <c r="D6538">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6539" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B6539">
+        <v>7.3280000000000003</v>
+      </c>
+      <c r="C6539">
+        <v>-76.17</v>
+      </c>
+      <c r="D6539">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6540" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B6540">
+        <v>7.1890000000000001</v>
+      </c>
+      <c r="C6540">
+        <v>-76.17</v>
+      </c>
+      <c r="D6540">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6541" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B6541">
+        <v>7.1340000000000003</v>
+      </c>
+      <c r="C6541">
+        <v>-76.17</v>
+      </c>
+      <c r="D6541">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6542" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B6542">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="C6542">
+        <v>-76.17</v>
+      </c>
+      <c r="D6542">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6543" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B6543">
+        <v>7.23</v>
+      </c>
+      <c r="C6543">
+        <v>-76.17</v>
+      </c>
+      <c r="D6543">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6544" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B6544">
+        <v>7.2169999999999996</v>
+      </c>
+      <c r="C6544">
+        <v>-76.17</v>
+      </c>
+      <c r="D6544">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6545" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B6545">
+        <v>6.726</v>
+      </c>
+      <c r="C6545">
+        <v>-76.17</v>
+      </c>
+      <c r="D6545">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6546" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B6546">
+        <v>6.2089999999999996</v>
+      </c>
+      <c r="C6546">
+        <v>-76.17</v>
+      </c>
+      <c r="D6546">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6547" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B6547">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="C6547">
+        <v>-76.17</v>
+      </c>
+      <c r="D6547">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6548" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B6548">
+        <v>7.1920000000000002</v>
+      </c>
+      <c r="C6548">
+        <v>-76.17</v>
+      </c>
+      <c r="D6548">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6549" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B6549">
+        <v>7.3090000000000002</v>
+      </c>
+      <c r="C6549">
+        <v>-76.17</v>
+      </c>
+      <c r="D6549">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6550" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B6550">
+        <v>7.3209999999999997</v>
+      </c>
+      <c r="C6550">
+        <v>-76.17</v>
+      </c>
+      <c r="D6550">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6551" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B6551">
+        <v>7.2930000000000001</v>
+      </c>
+      <c r="C6551">
+        <v>-76.17</v>
+      </c>
+      <c r="D6551">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6552" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B6552">
+        <v>8.2530000000000001</v>
+      </c>
+      <c r="C6552">
+        <v>-76.17</v>
+      </c>
+      <c r="D6552">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6553" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B6553">
+        <v>8.5839999999999996</v>
+      </c>
+      <c r="C6553">
+        <v>-76.17</v>
+      </c>
+      <c r="D6553">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6554" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B6554">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="C6554">
+        <v>-76.17</v>
+      </c>
+      <c r="D6554">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6555" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B6555">
+        <v>8.4320000000000004</v>
+      </c>
+      <c r="C6555">
+        <v>-76.17</v>
+      </c>
+      <c r="D6555">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6556" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B6556">
+        <v>8.9250000000000007</v>
+      </c>
+      <c r="C6556">
+        <v>-76.17</v>
+      </c>
+      <c r="D6556">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6557" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B6557">
+        <v>9.593</v>
+      </c>
+      <c r="C6557">
+        <v>-76.17</v>
+      </c>
+      <c r="D6557">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6558" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B6558">
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="C6558">
+        <v>-76.17</v>
+      </c>
+      <c r="D6558">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6559" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B6559">
+        <v>10.672000000000001</v>
+      </c>
+      <c r="C6559">
+        <v>-76.17</v>
+      </c>
+      <c r="D6559">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6560" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B6560">
+        <v>10.984999999999999</v>
+      </c>
+      <c r="C6560">
+        <v>-76.17</v>
+      </c>
+      <c r="D6560">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6561" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B6561">
+        <v>10.88</v>
+      </c>
+      <c r="C6561">
+        <v>-76.17</v>
+      </c>
+      <c r="D6561">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6562" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B6562">
+        <v>10.815</v>
+      </c>
+      <c r="C6562">
+        <v>-76.17</v>
+      </c>
+      <c r="D6562">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6563" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B6563">
+        <v>11.122999999999999</v>
+      </c>
+      <c r="C6563">
+        <v>-76.17</v>
+      </c>
+      <c r="D6563">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6564" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B6564">
+        <v>11.762</v>
+      </c>
+      <c r="C6564">
+        <v>-76.17</v>
+      </c>
+      <c r="D6564">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6565" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B6565">
+        <v>11.946</v>
+      </c>
+      <c r="C6565">
+        <v>-76.17</v>
+      </c>
+      <c r="D6565">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6566" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B6566">
+        <v>11.978</v>
+      </c>
+      <c r="C6566">
+        <v>-76.17</v>
+      </c>
+      <c r="D6566">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6567" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B6567">
+        <v>11.802</v>
+      </c>
+      <c r="C6567">
+        <v>-76.17</v>
+      </c>
+      <c r="D6567">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6568" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B6568">
+        <v>11.092000000000001</v>
+      </c>
+      <c r="C6568">
+        <v>-76.17</v>
+      </c>
+      <c r="D6568">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6569" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B6569">
+        <v>11.51</v>
+      </c>
+      <c r="C6569">
+        <v>-76.17</v>
+      </c>
+      <c r="D6569">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6570" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B6570">
+        <v>11.792999999999999</v>
+      </c>
+      <c r="C6570">
+        <v>-76.17</v>
+      </c>
+      <c r="D6570">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6571" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B6571">
+        <v>12.505000000000001</v>
+      </c>
+      <c r="C6571">
+        <v>-76.17</v>
+      </c>
+      <c r="D6571">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6572" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B6572">
+        <v>13.028</v>
+      </c>
+      <c r="C6572">
+        <v>-76.17</v>
+      </c>
+      <c r="D6572">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6573" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B6573">
+        <v>13.531000000000001</v>
+      </c>
+      <c r="C6573">
+        <v>-76.17</v>
+      </c>
+      <c r="D6573">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6574" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B6574">
+        <v>15.464</v>
+      </c>
+      <c r="C6574">
+        <v>-76.17</v>
+      </c>
+      <c r="D6574">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6575" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B6575">
+        <v>15.358000000000001</v>
+      </c>
+      <c r="C6575">
+        <v>-76.17</v>
+      </c>
+      <c r="D6575">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6576" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B6576">
+        <v>15.273999999999999</v>
+      </c>
+      <c r="C6576">
+        <v>-76.17</v>
+      </c>
+      <c r="D6576">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6577" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B6577">
+        <v>15.52</v>
+      </c>
+      <c r="C6577">
+        <v>-76.17</v>
+      </c>
+      <c r="D6577">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6578" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B6578">
+        <v>15.696</v>
+      </c>
+      <c r="C6578">
+        <v>-76.17</v>
+      </c>
+      <c r="D6578">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6579" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B6579">
+        <v>15.679</v>
+      </c>
+      <c r="C6579">
+        <v>-76.17</v>
+      </c>
+      <c r="D6579">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6580" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B6580">
+        <v>15.744999999999999</v>
+      </c>
+      <c r="C6580">
+        <v>-76.17</v>
+      </c>
+      <c r="D6580">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6581" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B6581">
+        <v>14.545999999999999</v>
+      </c>
+      <c r="C6581">
+        <v>-76.17</v>
+      </c>
+      <c r="D6581">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6582" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B6582">
+        <v>15.183</v>
+      </c>
+      <c r="C6582">
+        <v>-76.17</v>
+      </c>
+      <c r="D6582">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6583" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B6583">
+        <v>15.685</v>
+      </c>
+      <c r="C6583">
+        <v>-76.17</v>
+      </c>
+      <c r="D6583">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6584" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B6584">
+        <v>17.013000000000002</v>
+      </c>
+      <c r="C6584">
+        <v>-76.17</v>
+      </c>
+      <c r="D6584">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6585" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B6585">
+        <v>17.841000000000001</v>
+      </c>
+      <c r="C6585">
+        <v>-76.17</v>
+      </c>
+      <c r="D6585">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6586" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B6586">
+        <v>18.925999999999998</v>
+      </c>
+      <c r="C6586">
+        <v>-76.17</v>
+      </c>
+      <c r="D6586">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6587" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B6587">
+        <v>20.716000000000001</v>
+      </c>
+      <c r="C6587">
+        <v>-76.17</v>
+      </c>
+      <c r="D6587">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6588" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B6588">
+        <v>20.602</v>
+      </c>
+      <c r="C6588">
+        <v>-76.17</v>
+      </c>
+      <c r="D6588">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6589" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B6589">
+        <v>20.564</v>
+      </c>
+      <c r="C6589">
+        <v>-76.17</v>
+      </c>
+      <c r="D6589">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6590" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B6590">
+        <v>20.841000000000001</v>
+      </c>
+      <c r="C6590">
+        <v>-76.17</v>
+      </c>
+      <c r="D6590">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6591" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B6591">
+        <v>20.79</v>
+      </c>
+      <c r="C6591">
+        <v>-76.17</v>
+      </c>
+      <c r="D6591">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6592" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B6592">
+        <v>20.571999999999999</v>
+      </c>
+      <c r="C6592">
+        <v>-76.17</v>
+      </c>
+      <c r="D6592">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6593" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B6593">
+        <v>20.745999999999999</v>
+      </c>
+      <c r="C6593">
+        <v>-76.17</v>
+      </c>
+      <c r="D6593">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6594" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B6594">
+        <v>20.51</v>
+      </c>
+      <c r="C6594">
+        <v>-76.17</v>
+      </c>
+      <c r="D6594">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6595" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B6595">
+        <v>20.347999999999999</v>
+      </c>
+      <c r="C6595">
+        <v>-76.17</v>
+      </c>
+      <c r="D6595">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6596" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B6596">
+        <v>20.457999999999998</v>
+      </c>
+      <c r="C6596">
+        <v>-76.17</v>
+      </c>
+      <c r="D6596">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6597" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B6597">
+        <v>20.597999999999999</v>
+      </c>
+      <c r="C6597">
+        <v>-76.17</v>
+      </c>
+      <c r="D6597">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6598" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B6598">
+        <v>20.032</v>
+      </c>
+      <c r="C6598">
+        <v>-76.17</v>
+      </c>
+      <c r="D6598">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6599" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B6599">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="C6599">
+        <v>-76.17</v>
+      </c>
+      <c r="D6599">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6600" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B6600">
+        <v>20.076000000000001</v>
+      </c>
+      <c r="C6600">
+        <v>-76.17</v>
+      </c>
+      <c r="D6600">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6601" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B6601">
+        <v>20.541</v>
+      </c>
+      <c r="C6601">
+        <v>-76.17</v>
+      </c>
+      <c r="D6601">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6602" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B6602">
+        <v>21.199000000000002</v>
+      </c>
+      <c r="C6602">
+        <v>-76.17</v>
+      </c>
+      <c r="D6602">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6603" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B6603">
+        <v>23.12</v>
+      </c>
+      <c r="C6603">
+        <v>-76.17</v>
+      </c>
+      <c r="D6603">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6604" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B6604">
+        <v>23.408999999999999</v>
+      </c>
+      <c r="C6604">
+        <v>-76.17</v>
+      </c>
+      <c r="D6604">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6605" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B6605">
+        <v>23.404</v>
+      </c>
+      <c r="C6605">
+        <v>-76.17</v>
+      </c>
+      <c r="D6605">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6606" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B6606">
+        <v>23.606000000000002</v>
+      </c>
+      <c r="C6606">
+        <v>-76.17</v>
+      </c>
+      <c r="D6606">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6607" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B6607">
+        <v>23.809000000000001</v>
+      </c>
+      <c r="C6607">
+        <v>-76.17</v>
+      </c>
+      <c r="D6607">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6608" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B6608">
+        <v>23.902999999999999</v>
+      </c>
+      <c r="C6608">
+        <v>-76.17</v>
+      </c>
+      <c r="D6608">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6609" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B6609">
+        <v>24.129000000000001</v>
+      </c>
+      <c r="C6609">
+        <v>-76.17</v>
+      </c>
+      <c r="D6609">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6610" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B6610">
+        <v>24.114000000000001</v>
+      </c>
+      <c r="C6610">
+        <v>-76.17</v>
+      </c>
+      <c r="D6610">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6611" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B6611">
+        <v>24.117999999999999</v>
+      </c>
+      <c r="C6611">
+        <v>-76.17</v>
+      </c>
+      <c r="D6611">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6612" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B6612">
+        <v>24.041</v>
+      </c>
+      <c r="C6612">
+        <v>-76.17</v>
+      </c>
+      <c r="D6612">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6613" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B6613">
+        <v>23.818999999999999</v>
+      </c>
+      <c r="C6613">
+        <v>-76.17</v>
+      </c>
+      <c r="D6613">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6614" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B6614">
+        <v>23.861000000000001</v>
+      </c>
+      <c r="C6614">
+        <v>-76.17</v>
+      </c>
+      <c r="D6614">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6615" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B6615">
+        <v>23.771000000000001</v>
+      </c>
+      <c r="C6615">
+        <v>-76.17</v>
+      </c>
+      <c r="D6615">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6616" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B6616">
+        <v>23.870999999999999</v>
+      </c>
+      <c r="C6616">
+        <v>-76.17</v>
+      </c>
+      <c r="D6616">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6617" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B6617">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="C6617">
+        <v>-76.17</v>
+      </c>
+      <c r="D6617">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6618" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B6618">
+        <v>23.797999999999998</v>
+      </c>
+      <c r="C6618">
+        <v>-76.17</v>
+      </c>
+      <c r="D6618">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6619" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B6619">
+        <v>24.195</v>
+      </c>
+      <c r="C6619">
+        <v>-76.17</v>
+      </c>
+      <c r="D6619">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6620" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B6620">
+        <v>24.427</v>
+      </c>
+      <c r="C6620">
+        <v>-76.17</v>
+      </c>
+      <c r="D6620">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6621" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B6621">
+        <v>24.545000000000002</v>
+      </c>
+      <c r="C6621">
+        <v>-76.17</v>
+      </c>
+      <c r="D6621">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6622" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B6622">
+        <v>23.600999999999999</v>
+      </c>
+      <c r="C6622">
+        <v>-76.17</v>
+      </c>
+      <c r="D6622">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6623" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B6623">
+        <v>23.71</v>
+      </c>
+      <c r="C6623">
+        <v>-76.17</v>
+      </c>
+      <c r="D6623">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6624" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B6624">
+        <v>23.486000000000001</v>
+      </c>
+      <c r="C6624">
+        <v>-76.17</v>
+      </c>
+      <c r="D6624">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6625" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B6625">
+        <v>23.696000000000002</v>
+      </c>
+      <c r="C6625">
+        <v>-76.17</v>
+      </c>
+      <c r="D6625">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6626" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B6626">
+        <v>23.74</v>
+      </c>
+      <c r="C6626">
+        <v>-76.17</v>
+      </c>
+      <c r="D6626">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6627" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B6627">
+        <v>23.905999999999999</v>
+      </c>
+      <c r="C6627">
+        <v>-76.17</v>
+      </c>
+      <c r="D6627">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6628" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B6628">
+        <v>23.824999999999999</v>
+      </c>
+      <c r="C6628">
+        <v>-76.17</v>
+      </c>
+      <c r="D6628">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6629" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B6629">
+        <v>23.763999999999999</v>
+      </c>
+      <c r="C6629">
+        <v>-76.17</v>
+      </c>
+      <c r="D6629">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6630" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6630" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B6630">
+        <v>23.457000000000001</v>
+      </c>
+      <c r="C6630">
+        <v>-76.17</v>
+      </c>
+      <c r="D6630">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6631" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6631" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B6631">
+        <v>24.033999999999999</v>
+      </c>
+      <c r="C6631">
+        <v>-76.17</v>
+      </c>
+      <c r="D6631">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6632" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6632" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B6632">
+        <v>23.492000000000001</v>
+      </c>
+      <c r="C6632">
+        <v>-76.17</v>
+      </c>
+      <c r="D6632">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6633" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6633" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B6633">
+        <v>23.866</v>
+      </c>
+      <c r="C6633">
+        <v>-76.17</v>
+      </c>
+      <c r="D6633">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6634" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B6634">
+        <v>24.047000000000001</v>
+      </c>
+      <c r="C6634">
+        <v>-76.17</v>
+      </c>
+      <c r="D6634">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6635" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B6635">
+        <v>24.12</v>
+      </c>
+      <c r="C6635">
+        <v>-76.17</v>
+      </c>
+      <c r="D6635">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6636" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B6636">
+        <v>24.140999999999998</v>
+      </c>
+      <c r="C6636">
+        <v>-76.17</v>
+      </c>
+      <c r="D6636">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6637" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B6637">
+        <v>24.05</v>
+      </c>
+      <c r="C6637">
+        <v>-76.17</v>
+      </c>
+      <c r="D6637">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6638" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B6638">
+        <v>24.521000000000001</v>
+      </c>
+      <c r="C6638">
+        <v>-76.17</v>
+      </c>
+      <c r="D6638">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6639" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B6639">
+        <v>24.719000000000001</v>
+      </c>
+      <c r="C6639">
+        <v>-76.17</v>
+      </c>
+      <c r="D6639">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6640" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B6640">
+        <v>24.728999999999999</v>
+      </c>
+      <c r="C6640">
+        <v>-76.17</v>
+      </c>
+      <c r="D6640">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6641" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B6641">
+        <v>24.577999999999999</v>
+      </c>
+      <c r="C6641">
+        <v>-76.17</v>
+      </c>
+      <c r="D6641">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6642" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B6642">
+        <v>24.908000000000001</v>
+      </c>
+      <c r="C6642">
+        <v>-76.17</v>
+      </c>
+      <c r="D6642">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6643" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B6643">
+        <v>24.834</v>
+      </c>
+      <c r="C6643">
+        <v>-76.17</v>
+      </c>
+      <c r="D6643">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6644" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B6644">
+        <v>24.853000000000002</v>
+      </c>
+      <c r="C6644">
+        <v>-76.17</v>
+      </c>
+      <c r="D6644">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6645" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B6645">
+        <v>24.7</v>
+      </c>
+      <c r="C6645">
+        <v>-76.17</v>
+      </c>
+      <c r="D6645">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6646" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B6646">
+        <v>24.669</v>
+      </c>
+      <c r="C6646">
+        <v>-76.17</v>
+      </c>
+      <c r="D6646">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6647" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B6647">
+        <v>24.556000000000001</v>
+      </c>
+      <c r="C6647">
+        <v>-76.17</v>
+      </c>
+      <c r="D6647">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6648" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B6648">
+        <v>24.152000000000001</v>
+      </c>
+      <c r="C6648">
+        <v>-76.17</v>
+      </c>
+      <c r="D6648">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6649" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B6649">
+        <v>23.638000000000002</v>
+      </c>
+      <c r="C6649">
+        <v>-76.17</v>
+      </c>
+      <c r="D6649">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6650" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B6650">
+        <v>23.574000000000002</v>
+      </c>
+      <c r="C6650">
+        <v>-76.17</v>
+      </c>
+      <c r="D6650">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6651" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B6651">
+        <v>24.001999999999999</v>
+      </c>
+      <c r="C6651">
+        <v>-76.17</v>
+      </c>
+      <c r="D6651">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6652" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B6652">
+        <v>24.337</v>
+      </c>
+      <c r="C6652">
+        <v>-76.17</v>
+      </c>
+      <c r="D6652">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6653" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B6653">
+        <v>24.407</v>
+      </c>
+      <c r="C6653">
+        <v>-76.17</v>
+      </c>
+      <c r="D6653">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6654" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B6654">
+        <v>23.802</v>
+      </c>
+      <c r="C6654">
+        <v>-76.17</v>
+      </c>
+      <c r="D6654">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6655" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B6655">
+        <v>23.06</v>
+      </c>
+      <c r="C6655">
+        <v>-76.17</v>
+      </c>
+      <c r="D6655">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6656" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B6656">
+        <v>23.062999999999999</v>
+      </c>
+      <c r="C6656">
+        <v>-76.17</v>
+      </c>
+      <c r="D6656">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6657" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6657" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B6657">
+        <v>23.074000000000002</v>
+      </c>
+      <c r="C6657">
+        <v>-76.17</v>
+      </c>
+      <c r="D6657">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6658" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6658" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B6658">
+        <v>23.006</v>
+      </c>
+      <c r="C6658">
+        <v>-76.17</v>
+      </c>
+      <c r="D6658">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6659" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6659" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B6659">
+        <v>22.707000000000001</v>
+      </c>
+      <c r="C6659">
+        <v>-76.17</v>
+      </c>
+      <c r="D6659">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6660" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6660" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B6660">
+        <v>22.690999999999999</v>
+      </c>
+      <c r="C6660">
+        <v>-76.17</v>
+      </c>
+      <c r="D6660">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6661" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6661" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B6661">
+        <v>22.577999999999999</v>
+      </c>
+      <c r="C6661">
+        <v>-76.17</v>
+      </c>
+      <c r="D6661">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6662" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6662" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B6662">
+        <v>22.823</v>
+      </c>
+      <c r="C6662">
+        <v>-76.17</v>
+      </c>
+      <c r="D6662">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6663" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B6663">
+        <v>22.71</v>
+      </c>
+      <c r="C6663">
+        <v>-76.17</v>
+      </c>
+      <c r="D6663">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6664" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6664" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B6664">
+        <v>22.315000000000001</v>
+      </c>
+      <c r="C6664">
+        <v>-76.17</v>
+      </c>
+      <c r="D6664">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6665" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6665" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B6665">
+        <v>22.202000000000002</v>
+      </c>
+      <c r="C6665">
+        <v>-76.17</v>
+      </c>
+      <c r="D6665">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6666" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6666" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B6666">
+        <v>22.193999999999999</v>
+      </c>
+      <c r="C6666">
+        <v>-76.17</v>
+      </c>
+      <c r="D6666">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6667" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6667" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B6667">
+        <v>22.102</v>
+      </c>
+      <c r="C6667">
+        <v>-76.17</v>
+      </c>
+      <c r="D6667">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6668" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6668" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B6668">
+        <v>21.491</v>
+      </c>
+      <c r="C6668">
+        <v>-76.17</v>
+      </c>
+      <c r="D6668">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6669" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6669" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B6669">
+        <v>21.298999999999999</v>
+      </c>
+      <c r="C6669">
+        <v>-76.17</v>
+      </c>
+      <c r="D6669">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6670" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B6670">
+        <v>20.841999999999999</v>
+      </c>
+      <c r="C6670">
+        <v>-76.17</v>
+      </c>
+      <c r="D6670">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6671" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6671" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B6671">
+        <v>20.78</v>
+      </c>
+      <c r="C6671">
+        <v>-76.17</v>
+      </c>
+      <c r="D6671">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6672" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6672" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B6672">
+        <v>20.359000000000002</v>
+      </c>
+      <c r="C6672">
+        <v>-76.17</v>
+      </c>
+      <c r="D6672">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6673" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6673" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B6673">
+        <v>20.14</v>
+      </c>
+      <c r="C6673">
+        <v>-76.17</v>
+      </c>
+      <c r="D6673">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6674" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6674" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B6674">
+        <v>19.423999999999999</v>
+      </c>
+      <c r="C6674">
+        <v>-76.17</v>
+      </c>
+      <c r="D6674">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6675" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6675" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B6675">
+        <v>19.047000000000001</v>
+      </c>
+      <c r="C6675">
+        <v>-76.17</v>
+      </c>
+      <c r="D6675">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6676" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6676" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B6676">
+        <v>18.95</v>
+      </c>
+      <c r="C6676">
+        <v>-76.17</v>
+      </c>
+      <c r="D6676">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6677" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6677" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B6677">
+        <v>18.895</v>
+      </c>
+      <c r="C6677">
+        <v>-76.17</v>
+      </c>
+      <c r="D6677">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6678" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6678" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B6678">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="C6678">
+        <v>-76.17</v>
+      </c>
+      <c r="D6678">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6679" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6679" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B6679">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C6679">
+        <v>-76.17</v>
+      </c>
+      <c r="D6679">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6680" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6680" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B6680">
+        <v>18.184000000000001</v>
+      </c>
+      <c r="C6680">
+        <v>-76.17</v>
+      </c>
+      <c r="D6680">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6681" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6681" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B6681">
+        <v>18.213000000000001</v>
+      </c>
+      <c r="C6681">
+        <v>-76.17</v>
+      </c>
+      <c r="D6681">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6682" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6682" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B6682">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="C6682">
+        <v>-76.17</v>
+      </c>
+      <c r="D6682">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6683" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6683" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B6683">
+        <v>18.434000000000001</v>
+      </c>
+      <c r="C6683">
+        <v>-76.17</v>
+      </c>
+      <c r="D6683">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6684" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6684" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B6684">
+        <v>18.806000000000001</v>
+      </c>
+      <c r="C6684">
+        <v>-76.17</v>
+      </c>
+      <c r="D6684">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6685" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6685" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B6685">
+        <v>18.954999999999998</v>
+      </c>
+      <c r="C6685">
+        <v>-76.17</v>
+      </c>
+      <c r="D6685">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6686" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6686" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B6686">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="C6686">
+        <v>-76.17</v>
+      </c>
+      <c r="D6686">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6687" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6687" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B6687">
+        <v>19.073</v>
+      </c>
+      <c r="C6687">
+        <v>-76.17</v>
+      </c>
+      <c r="D6687">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6688" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6688" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B6688">
+        <v>18.981999999999999</v>
+      </c>
+      <c r="C6688">
+        <v>-76.17</v>
+      </c>
+      <c r="D6688">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6689" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B6689">
+        <v>18.474</v>
+      </c>
+      <c r="C6689">
+        <v>-76.17</v>
+      </c>
+      <c r="D6689">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6690" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6690" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B6690">
+        <v>18.202999999999999</v>
+      </c>
+      <c r="C6690">
+        <v>-76.17</v>
+      </c>
+      <c r="D6690">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6691" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6691" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B6691">
+        <v>17.988</v>
+      </c>
+      <c r="C6691">
+        <v>-76.17</v>
+      </c>
+      <c r="D6691">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6692" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6692" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B6692">
+        <v>17.567</v>
+      </c>
+      <c r="C6692">
+        <v>-76.17</v>
+      </c>
+      <c r="D6692">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6693" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6693" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B6693">
+        <v>17.408999999999999</v>
+      </c>
+      <c r="C6693">
+        <v>-76.17</v>
+      </c>
+      <c r="D6693">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6694" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6694" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B6694">
+        <v>17.212</v>
+      </c>
+      <c r="C6694">
+        <v>-76.17</v>
+      </c>
+      <c r="D6694">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6695" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6695" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B6695">
+        <v>16.972000000000001</v>
+      </c>
+      <c r="C6695">
+        <v>-76.17</v>
+      </c>
+      <c r="D6695">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6696" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6696" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B6696">
+        <v>16.794</v>
+      </c>
+      <c r="C6696">
+        <v>-76.17</v>
+      </c>
+      <c r="D6696">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6697" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6697" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B6697">
+        <v>16.728000000000002</v>
+      </c>
+      <c r="C6697">
+        <v>-76.17</v>
+      </c>
+      <c r="D6697">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6698" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6698" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B6698">
+        <v>16.346</v>
+      </c>
+      <c r="C6698">
+        <v>-76.17</v>
+      </c>
+      <c r="D6698">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6699" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B6699">
+        <v>15.887</v>
+      </c>
+      <c r="C6699">
+        <v>-76.17</v>
+      </c>
+      <c r="D6699">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6700" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B6700">
+        <v>15.704000000000001</v>
+      </c>
+      <c r="C6700">
+        <v>-76.17</v>
+      </c>
+      <c r="D6700">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6701" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6701" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B6701">
+        <v>15.666</v>
+      </c>
+      <c r="C6701">
+        <v>-76.17</v>
+      </c>
+      <c r="D6701">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6702" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6702" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B6702">
+        <v>15.621</v>
+      </c>
+      <c r="C6702">
+        <v>-76.17</v>
+      </c>
+      <c r="D6702">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6703" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6703" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B6703">
+        <v>15.757999999999999</v>
+      </c>
+      <c r="C6703">
+        <v>-76.17</v>
+      </c>
+      <c r="D6703">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6704" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6704" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B6704">
+        <v>15.38</v>
+      </c>
+      <c r="C6704">
+        <v>-76.17</v>
+      </c>
+      <c r="D6704">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6705" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B6705">
+        <v>15.07</v>
+      </c>
+      <c r="C6705">
+        <v>-76.17</v>
+      </c>
+      <c r="D6705">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6706" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6706" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B6706">
+        <v>15.121</v>
+      </c>
+      <c r="C6706">
+        <v>-76.17</v>
+      </c>
+      <c r="D6706">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6707" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6707" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B6707">
+        <v>15.103</v>
+      </c>
+      <c r="C6707">
+        <v>-76.17</v>
+      </c>
+      <c r="D6707">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6708" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6708" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B6708">
+        <v>14.750999999999999</v>
+      </c>
+      <c r="C6708">
+        <v>-76.17</v>
+      </c>
+      <c r="D6708">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6709" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6709" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B6709">
+        <v>14.494</v>
+      </c>
+      <c r="C6709">
+        <v>-76.17</v>
+      </c>
+      <c r="D6709">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6710" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6710" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B6710">
+        <v>14.45</v>
+      </c>
+      <c r="C6710">
+        <v>-76.17</v>
+      </c>
+      <c r="D6710">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6711" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6711" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B6711">
+        <v>14.465999999999999</v>
+      </c>
+      <c r="C6711">
+        <v>-76.17</v>
+      </c>
+      <c r="D6711">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6712" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6712" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B6712">
+        <v>14.542</v>
+      </c>
+      <c r="C6712">
+        <v>-76.17</v>
+      </c>
+      <c r="D6712">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6713" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6713" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B6713">
+        <v>14.625999999999999</v>
+      </c>
+      <c r="C6713">
+        <v>-76.17</v>
+      </c>
+      <c r="D6713">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6714" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6714" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B6714">
+        <v>14.786</v>
+      </c>
+      <c r="C6714">
+        <v>-76.17</v>
+      </c>
+      <c r="D6714">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6715" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6715" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B6715">
+        <v>14.121</v>
+      </c>
+      <c r="C6715">
+        <v>-76.17</v>
+      </c>
+      <c r="D6715">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6716" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6716" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B6716">
+        <v>13.063000000000001</v>
+      </c>
+      <c r="C6716">
+        <v>-76.17</v>
+      </c>
+      <c r="D6716">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6717" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6717" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B6717">
+        <v>12.768000000000001</v>
+      </c>
+      <c r="C6717">
+        <v>-76.17</v>
+      </c>
+      <c r="D6717">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6718" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B6718">
+        <v>12.654999999999999</v>
+      </c>
+      <c r="C6718">
+        <v>-76.17</v>
+      </c>
+      <c r="D6718">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6719" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6719" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B6719">
+        <v>12.255000000000001</v>
+      </c>
+      <c r="C6719">
+        <v>-76.17</v>
+      </c>
+      <c r="D6719">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6720" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B6720">
+        <v>12.055</v>
+      </c>
+      <c r="C6720">
+        <v>-76.17</v>
+      </c>
+      <c r="D6720">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6721" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6721" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B6721">
+        <v>12.002000000000001</v>
+      </c>
+      <c r="C6721">
+        <v>-76.17</v>
+      </c>
+      <c r="D6721">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6722" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6722" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B6722">
+        <v>11.981</v>
+      </c>
+      <c r="C6722">
+        <v>-76.17</v>
+      </c>
+      <c r="D6722">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6723" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6723" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B6723">
+        <v>11.814</v>
+      </c>
+      <c r="C6723">
+        <v>-76.17</v>
+      </c>
+      <c r="D6723">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6724" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6724" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B6724">
+        <v>11.474</v>
+      </c>
+      <c r="C6724">
+        <v>-76.17</v>
+      </c>
+      <c r="D6724">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6725" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6725" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B6725">
+        <v>11.09</v>
+      </c>
+      <c r="C6725">
+        <v>-76.17</v>
+      </c>
+      <c r="D6725">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6726" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B6726">
+        <v>11.051</v>
+      </c>
+      <c r="C6726">
+        <v>-76.17</v>
+      </c>
+      <c r="D6726">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6727" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B6727">
+        <v>11.42</v>
+      </c>
+      <c r="C6727">
+        <v>-76.17</v>
+      </c>
+      <c r="D6727">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6728" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6728" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B6728">
+        <v>11.891</v>
+      </c>
+      <c r="C6728">
+        <v>-76.17</v>
+      </c>
+      <c r="D6728">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6729" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6729" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B6729">
+        <v>12.074</v>
+      </c>
+      <c r="C6729">
+        <v>-76.17</v>
+      </c>
+      <c r="D6729">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6730" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6730" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B6730">
+        <v>12.12</v>
+      </c>
+      <c r="C6730">
+        <v>-76.17</v>
+      </c>
+      <c r="D6730">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6731" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6731" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B6731">
+        <v>12.08</v>
+      </c>
+      <c r="C6731">
+        <v>-76.17</v>
+      </c>
+      <c r="D6731">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6732" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6732" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B6732">
+        <v>11.238</v>
+      </c>
+      <c r="C6732">
+        <v>-76.17</v>
+      </c>
+      <c r="D6732">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6733" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B6733">
+        <v>11.106</v>
+      </c>
+      <c r="C6733">
+        <v>-76.17</v>
+      </c>
+      <c r="D6733">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6734" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B6734">
+        <v>10.956</v>
+      </c>
+      <c r="C6734">
+        <v>-76.17</v>
+      </c>
+      <c r="D6734">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6735" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B6735">
+        <v>10.625</v>
+      </c>
+      <c r="C6735">
+        <v>-76.17</v>
+      </c>
+      <c r="D6735">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6736" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B6736">
+        <v>10.65</v>
+      </c>
+      <c r="C6736">
+        <v>-76.17</v>
+      </c>
+      <c r="D6736">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6737" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6737" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B6737">
+        <v>10.003</v>
+      </c>
+      <c r="C6737">
+        <v>-76.17</v>
+      </c>
+      <c r="D6737">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6738" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6738" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B6738">
+        <v>9.9149999999999991</v>
+      </c>
+      <c r="C6738">
+        <v>-76.17</v>
+      </c>
+      <c r="D6738">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6739" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B6739">
+        <v>9.8810000000000002</v>
+      </c>
+      <c r="C6739">
+        <v>-76.17</v>
+      </c>
+      <c r="D6739">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6740" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6740" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B6740">
+        <v>9.7609999999999992</v>
+      </c>
+      <c r="C6740">
+        <v>-76.17</v>
+      </c>
+      <c r="D6740">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6741" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B6741">
+        <v>9.7249999999999996</v>
+      </c>
+      <c r="C6741">
+        <v>-76.17</v>
+      </c>
+      <c r="D6741">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6742" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B6742">
+        <v>8.6509999999999998</v>
+      </c>
+      <c r="C6742">
+        <v>-76.17</v>
+      </c>
+      <c r="D6742">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6743" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B6743">
+        <v>8.4629999999999992</v>
+      </c>
+      <c r="C6743">
+        <v>-76.17</v>
+      </c>
+      <c r="D6743">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6744" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B6744">
+        <v>7.9560000000000004</v>
+      </c>
+      <c r="C6744">
+        <v>-76.17</v>
+      </c>
+      <c r="D6744">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6745" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B6745">
+        <v>7.8860000000000001</v>
+      </c>
+      <c r="C6745">
+        <v>-76.17</v>
+      </c>
+      <c r="D6745">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6746" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B6746">
+        <v>8.2729999999999997</v>
+      </c>
+      <c r="C6746">
+        <v>-76.17</v>
+      </c>
+      <c r="D6746">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6747" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B6747">
+        <v>8.2490000000000006</v>
+      </c>
+      <c r="C6747">
+        <v>-76.17</v>
+      </c>
+      <c r="D6747">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6748" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B6748">
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="C6748">
+        <v>-76.17</v>
+      </c>
+      <c r="D6748">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6749" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6749" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B6749">
+        <v>8.3460000000000001</v>
+      </c>
+      <c r="C6749">
+        <v>-76.17</v>
+      </c>
+      <c r="D6749">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="6750" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6750" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B6750">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="C6750">
+        <v>-76.17</v>
+      </c>
+      <c r="D6750">
         <v>44.05</v>
       </c>
     </row>
